--- a/Docs/Fragen_Quiz.xlsx
+++ b/Docs/Fragen_Quiz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\R\Übersichten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\R\Hackathon_Quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA87341-E4CB-4D09-819C-E7FDCDB6BFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462BB139-D508-4B33-AF51-477B0E6AC302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{038BF83B-4E0E-466C-A2A8-7B82ACCE286C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{038BF83B-4E0E-466C-A2A8-7B82ACCE286C}"/>
   </bookViews>
   <sheets>
     <sheet name="Fragen" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="124">
   <si>
     <t>Frage</t>
   </si>
@@ -826,6 +826,9 @@
       <c r="D2" t="s">
         <v>100</v>
       </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
@@ -850,12 +853,16 @@
       <c r="D3" t="s">
         <v>101</v>
       </c>
+      <c r="E3" t="s">
+        <v>99</v>
+      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3">
         <v>199824</v>
       </c>
+      <c r="H3" s="1"/>
       <c r="I3" t="s">
         <v>9</v>
       </c>
@@ -873,12 +880,16 @@
       <c r="D4" t="s">
         <v>102</v>
       </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
       <c r="G4">
         <v>49.7</v>
       </c>
+      <c r="H4" s="1"/>
       <c r="I4" t="s">
         <v>15</v>
       </c>
@@ -896,12 +907,16 @@
       <c r="D5" t="s">
         <v>103</v>
       </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5">
         <v>3500</v>
       </c>
+      <c r="H5" s="1"/>
       <c r="I5" t="s">
         <v>19</v>
       </c>
@@ -919,12 +934,16 @@
       <c r="D6" t="s">
         <v>104</v>
       </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6">
         <v>90</v>
       </c>
+      <c r="H6" s="1"/>
       <c r="I6" t="s">
         <v>23</v>
       </c>
@@ -942,12 +961,16 @@
       <c r="D7" t="s">
         <v>105</v>
       </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
       <c r="F7" t="s">
         <v>25</v>
       </c>
       <c r="G7">
         <v>58756</v>
       </c>
+      <c r="H7" s="1"/>
       <c r="I7" t="s">
         <v>31</v>
       </c>
@@ -965,12 +988,16 @@
       <c r="D8" t="s">
         <v>106</v>
       </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
       <c r="F8" t="s">
         <v>28</v>
       </c>
       <c r="G8">
         <v>39483</v>
       </c>
+      <c r="H8" s="1"/>
       <c r="I8" t="s">
         <v>32</v>
       </c>
@@ -988,12 +1015,16 @@
       <c r="D9" t="s">
         <v>107</v>
       </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
       <c r="F9" t="s">
         <v>84</v>
       </c>
       <c r="G9">
         <v>259</v>
       </c>
+      <c r="H9" s="1"/>
       <c r="I9" t="s">
         <v>33</v>
       </c>
@@ -1011,12 +1042,16 @@
       <c r="D10" t="s">
         <v>108</v>
       </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
       <c r="F10" t="s">
         <v>5</v>
       </c>
       <c r="G10">
         <v>8</v>
       </c>
+      <c r="H10" s="1"/>
       <c r="I10" t="s">
         <v>36</v>
       </c>
@@ -1034,12 +1069,16 @@
       <c r="D11" t="s">
         <v>109</v>
       </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
       <c r="F11" t="s">
         <v>39</v>
       </c>
       <c r="G11">
         <v>526</v>
       </c>
+      <c r="H11" s="1"/>
       <c r="I11" t="s">
         <v>40</v>
       </c>
@@ -1057,12 +1096,16 @@
       <c r="D12" t="s">
         <v>110</v>
       </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12">
         <v>149322</v>
       </c>
+      <c r="H12" s="1"/>
       <c r="I12" t="s">
         <v>43</v>
       </c>
@@ -1080,12 +1123,16 @@
       <c r="D13" t="s">
         <v>111</v>
       </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
       <c r="F13" t="s">
         <v>5</v>
       </c>
       <c r="G13">
         <v>82727</v>
       </c>
+      <c r="H13" s="1"/>
       <c r="I13" t="s">
         <v>43</v>
       </c>
@@ -1103,12 +1150,16 @@
       <c r="D14" t="s">
         <v>112</v>
       </c>
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
       <c r="F14" t="s">
         <v>48</v>
       </c>
       <c r="G14">
         <v>401.6</v>
       </c>
+      <c r="H14" s="1"/>
       <c r="I14" t="s">
         <v>49</v>
       </c>
@@ -1126,12 +1177,16 @@
       <c r="D15" t="s">
         <v>113</v>
       </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
       <c r="F15" t="s">
         <v>18</v>
       </c>
       <c r="G15">
         <v>785.5</v>
       </c>
+      <c r="H15" s="1"/>
       <c r="I15" t="s">
         <v>50</v>
       </c>
@@ -1149,12 +1204,16 @@
       <c r="D16" t="s">
         <v>114</v>
       </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
       <c r="F16" t="s">
         <v>53</v>
       </c>
       <c r="G16">
         <v>319</v>
       </c>
+      <c r="H16" s="1"/>
       <c r="I16" t="s">
         <v>54</v>
       </c>
@@ -1172,12 +1231,16 @@
       <c r="D17" t="s">
         <v>115</v>
       </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
       <c r="F17" t="s">
         <v>25</v>
       </c>
       <c r="G17">
         <v>649661</v>
       </c>
+      <c r="H17" s="1"/>
       <c r="I17" t="s">
         <v>57</v>
       </c>
@@ -1195,12 +1258,16 @@
       <c r="D18" t="s">
         <v>116</v>
       </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="G18">
         <v>117636</v>
       </c>
+      <c r="H18" s="1"/>
       <c r="I18" t="s">
         <v>60</v>
       </c>
@@ -1218,12 +1285,16 @@
       <c r="D19" t="s">
         <v>117</v>
       </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
       <c r="F19" t="s">
         <v>28</v>
       </c>
       <c r="G19">
         <v>3603</v>
       </c>
+      <c r="H19" s="1"/>
       <c r="I19" t="s">
         <v>63</v>
       </c>
@@ -1241,12 +1312,16 @@
       <c r="D20" t="s">
         <v>118</v>
       </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
       <c r="G20">
         <v>4007</v>
       </c>
+      <c r="H20" s="1"/>
       <c r="I20" t="s">
         <v>66</v>
       </c>
@@ -1264,12 +1339,16 @@
       <c r="D21" t="s">
         <v>119</v>
       </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
       <c r="F21" t="s">
         <v>28</v>
       </c>
       <c r="G21">
         <v>344.05</v>
       </c>
+      <c r="H21" s="1"/>
       <c r="I21" t="s">
         <v>69</v>
       </c>
@@ -1287,12 +1366,16 @@
       <c r="D22" t="s">
         <v>120</v>
       </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
       <c r="F22" t="s">
         <v>39</v>
       </c>
       <c r="G22">
         <v>23549</v>
       </c>
+      <c r="H22" s="1"/>
       <c r="I22" t="s">
         <v>72</v>
       </c>
